--- a/data/trans_orig/IP22D5_2023_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP22D5_2023_R-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27C8A0F4-0F18-4CD8-B690-500AADE4C038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DEB5E15-5891-4EEC-BA14-D911BA541A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0F4B5614-4645-4155-B135-1F768E9B87E6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BE1DA7AD-CE22-4B39-A975-9F7EB7F09C1F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -110,25 +110,25 @@
     <t>4,28%</t>
   </si>
   <si>
-    <t>18,8%</t>
+    <t>21,68%</t>
   </si>
   <si>
     <t>2,6%</t>
   </si>
   <si>
-    <t>11,39%</t>
+    <t>14,14%</t>
   </si>
   <si>
     <t>95,72%</t>
   </si>
   <si>
-    <t>81,2%</t>
+    <t>78,32%</t>
   </si>
   <si>
     <t>97,4%</t>
   </si>
   <si>
-    <t>88,61%</t>
+    <t>85,86%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -176,7 +176,7 @@
     <t>1,02%</t>
   </si>
   <si>
-    <t>5,74%</t>
+    <t>5,41%</t>
   </si>
   <si>
     <t>2,99%</t>
@@ -185,13 +185,13 @@
     <t>0,54%</t>
   </si>
   <si>
-    <t>3,02%</t>
+    <t>3,12%</t>
   </si>
   <si>
     <t>98,98%</t>
   </si>
   <si>
-    <t>94,26%</t>
+    <t>94,59%</t>
   </si>
   <si>
     <t>97,01%</t>
@@ -200,7 +200,7 @@
     <t>99,46%</t>
   </si>
   <si>
-    <t>96,98%</t>
+    <t>96,88%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -615,7 +615,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8804D399-E0AF-4DA0-BEF7-C3270D800962}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B604EF28-1B21-451E-B45F-C27562D6027C}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/IP22D5_2023_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP22D5_2023_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DEB5E15-5891-4EEC-BA14-D911BA541A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A58820D-229E-411A-95BC-280FC73D558C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BE1DA7AD-CE22-4B39-A975-9F7EB7F09C1F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{40380FDE-75A7-4987-9CD2-17777141EFD0}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -41,10 +41,10 @@
     <t>Menores que, necesitando atención sanitaria psiquiátrica, no la pudo recibir por motivos económicos en 2023 (Tasa respuesta: 6,61%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,7 +68,7 @@
     <t>0-2</t>
   </si>
   <si>
-    <t>SÍ</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -77,130 +77,130 @@
     <t>0%</t>
   </si>
   <si>
+    <t>14,51%</t>
+  </si>
+  <si>
     <t>15,69%</t>
   </si>
   <si>
-    <t>14,51%</t>
-  </si>
-  <si>
     <t>7,93%</t>
   </si>
   <si>
-    <t>NO</t>
+    <t>No</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>84,31%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
     <t>92,07%</t>
   </si>
   <si>
     <t>3-7</t>
   </si>
   <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
+    <t>13,49%</t>
+  </si>
+  <si>
     <t>9,49%</t>
   </si>
   <si>
-    <t>13,49%</t>
-  </si>
-  <si>
     <t>5,78%</t>
   </si>
   <si>
+    <t>86,51%</t>
+  </si>
+  <si>
     <t>90,51%</t>
   </si>
   <si>
-    <t>86,51%</t>
-  </si>
-  <si>
     <t>94,22%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
+    <t>7,06%</t>
+  </si>
+  <si>
     <t>10,53%</t>
   </si>
   <si>
-    <t>7,06%</t>
-  </si>
-  <si>
     <t>4,34%</t>
   </si>
   <si>
+    <t>92,94%</t>
+  </si>
+  <si>
     <t>89,47%</t>
   </si>
   <si>
-    <t>92,94%</t>
-  </si>
-  <si>
     <t>95,66%</t>
   </si>
   <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
     <t>2,99%</t>
   </si>
   <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
   </si>
   <si>
     <t>97,01%</t>
   </si>
   <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -615,7 +615,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B604EF28-1B21-451E-B45F-C27562D6027C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09CA5654-7DCB-4D38-86CA-019DFB44900E}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -784,10 +784,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="7">
-        <v>5964</v>
+        <v>7002</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -799,10 +799,10 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I5" s="7">
-        <v>6818</v>
+        <v>6261</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
@@ -817,7 +817,7 @@
         <v>23</v>
       </c>
       <c r="N5" s="7">
-        <v>12781</v>
+        <v>13262</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
@@ -835,10 +835,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" s="7">
-        <v>5964</v>
+        <v>7002</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -850,10 +850,10 @@
         <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I6" s="7">
-        <v>6818</v>
+        <v>6261</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -868,7 +868,7 @@
         <v>23</v>
       </c>
       <c r="N6" s="7">
-        <v>12781</v>
+        <v>13262</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -888,40 +888,40 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="7">
-        <v>504</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="I7" s="7">
+        <v>519</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="K7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>25</v>
@@ -939,40 +939,40 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
+        <v>12</v>
+      </c>
+      <c r="D8" s="7">
+        <v>8059</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="7">
         <v>16</v>
       </c>
-      <c r="D8" s="7">
-        <v>11271</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="I8" s="7">
+        <v>12018</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="7">
-        <v>12</v>
-      </c>
-      <c r="I8" s="7">
-        <v>7589</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M8" s="7">
         <v>28</v>
       </c>
       <c r="N8" s="7">
-        <v>18859</v>
+        <v>20077</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>29</v>
@@ -990,10 +990,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D9" s="7">
-        <v>11775</v>
+        <v>8059</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -1005,10 +1005,10 @@
         <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I9" s="7">
-        <v>7589</v>
+        <v>12537</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1023,7 +1023,7 @@
         <v>29</v>
       </c>
       <c r="N9" s="7">
-        <v>19363</v>
+        <v>20596</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -1094,10 +1094,10 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D11" s="7">
-        <v>15412</v>
+        <v>9507</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
@@ -1109,10 +1109,10 @@
         <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I11" s="7">
-        <v>9550</v>
+        <v>16719</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
@@ -1127,7 +1127,7 @@
         <v>32</v>
       </c>
       <c r="N11" s="7">
-        <v>24962</v>
+        <v>26226</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
@@ -1145,10 +1145,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D12" s="7">
-        <v>15412</v>
+        <v>9507</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -1160,10 +1160,10 @@
         <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I12" s="7">
-        <v>9550</v>
+        <v>16719</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -1178,7 +1178,7 @@
         <v>32</v>
       </c>
       <c r="N12" s="7">
-        <v>24962</v>
+        <v>26226</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -1249,10 +1249,10 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D14" s="7">
-        <v>16266</v>
+        <v>23598</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
@@ -1264,10 +1264,10 @@
         <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I14" s="7">
-        <v>20404</v>
+        <v>17756</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
@@ -1282,7 +1282,7 @@
         <v>43</v>
       </c>
       <c r="N14" s="7">
-        <v>36670</v>
+        <v>41354</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
@@ -1300,10 +1300,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D15" s="7">
-        <v>16266</v>
+        <v>23598</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -1315,10 +1315,10 @@
         <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I15" s="7">
-        <v>20404</v>
+        <v>17756</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -1333,7 +1333,7 @@
         <v>43</v>
       </c>
       <c r="N15" s="7">
-        <v>36670</v>
+        <v>41354</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -1353,31 +1353,31 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="7">
         <v>1</v>
       </c>
-      <c r="D16" s="7">
-        <v>504</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="I16" s="7">
+        <v>519</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>47</v>
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>48</v>
@@ -1407,37 +1407,37 @@
         <v>63</v>
       </c>
       <c r="D17" s="7">
-        <v>48913</v>
+        <v>48166</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>51</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H17" s="7">
         <v>63</v>
       </c>
       <c r="I17" s="7">
-        <v>44360</v>
+        <v>52753</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>52</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M17" s="7">
         <v>126</v>
       </c>
       <c r="N17" s="7">
-        <v>93273</v>
+        <v>100919</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>53</v>
@@ -1455,25 +1455,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>63</v>
+      </c>
+      <c r="D18" s="7">
+        <v>48166</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>64</v>
       </c>
-      <c r="D18" s="7">
-        <v>49417</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>63</v>
-      </c>
       <c r="I18" s="7">
-        <v>44360</v>
+        <v>53272</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -1488,7 +1488,7 @@
         <v>127</v>
       </c>
       <c r="N18" s="7">
-        <v>93777</v>
+        <v>101438</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
